--- a/resource_api/finans/konteyner_islem/dosyalar/finans_test_list.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/finans_test_list.xlsx
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4564585.63</v>
+        <v>4579002.72</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>371892.39</v>
+        <v>357359.93</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4192693.24</v>
+        <v>4221642.79</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>3655201.82</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>909383.8100000001</v>
+        <v>923800.8999999999</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>537491.4200000004</v>
+        <v>566440.9700000002</v>
       </c>
     </row>
     <row r="3">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>603618.2</v>
+        <v>604890.7</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>593460.4399999999</v>
+        <v>594732.9399999999</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>593460.4399999999</v>
@@ -613,10 +613,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>10157.76000000001</v>
+        <v>11430.26000000001</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1272.5</v>
       </c>
     </row>
     <row r="7">
@@ -650,982 +650,906 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vitaly - Ukraine</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>20304.31</v>
+        <v>687937.4300000001</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>16059.19</v>
+        <v>687937.4300000001</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>16059.2</v>
+        <v>649694.71</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4245.110000000001</v>
+        <v>38242.72000000009</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01000000000021828</v>
+        <v>38242.72000000009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hisarli Mermer</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>5634.73</v>
+        <v>1118266.69</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>6698.25</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5634.73</v>
+        <v>1111568.44</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2227.35</v>
+        <v>1107549.49</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3407.38</v>
+        <v>10717.19999999995</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3407.38</v>
+        <v>4018.949999999953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Patrick - Germany</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>687937.8100000001</v>
+        <v>142602.23</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>20466.04</v>
+        <v>19614.28</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>667471.77</v>
+        <v>122987.95</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>649694.71</v>
+        <v>115215.46</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>5792.49</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>38243.10000000009</v>
+        <v>27386.77</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>17777.06000000006</v>
+        <v>7772.489999999991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1118266.69</v>
+        <v>72485.12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6698.25</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1111568.44</v>
+        <v>72485.12</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1107549.49</v>
+        <v>76485.12</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>10717.19999999995</v>
+        <v>-4000</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>4018.949999999953</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>142625.63</v>
+        <v>128335.09</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>36910.17</v>
+        <v>18857.68</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>105715.46</v>
+        <v>109477.41</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>115215.46</v>
+        <v>106013.11</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9500</v>
+        <v>7239.86</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>27410.17</v>
+        <v>22321.98</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-9500</v>
+        <v>3464.300000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>Robert - Bahamas</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>72485.12</v>
+        <v>54680.02</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>72485.12</v>
+        <v>54680.02</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>76485.12</v>
+        <v>29017.66</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>-4000</v>
+        <v>25662.36</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-4000</v>
+        <v>25662.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gebran - Bahrain</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>128335.09</v>
+        <v>69188.85000000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>37061.84</v>
+        <v>66012.85000000001</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>91273.25</v>
+        <v>3176</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>106013.11</v>
+        <v>3176</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>14739.86</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>22321.98</v>
+        <v>66012.85000000001</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-14739.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Robert - Bahamas</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>54680.02</v>
+        <v>226193.43</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>54680.02</v>
+        <v>226193.43</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>29017.66</v>
+        <v>220282.53</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>25662.36</v>
+        <v>5910.900000000023</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>25662.36</v>
+        <v>5910.900000000023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ingo - Ghana</t>
+          <t>Sheikh - UAE</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>69188.85000000001</v>
+        <v>249338.39</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>66012.85000000001</v>
+        <v>4820</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3176</v>
+        <v>244518.39</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3176</v>
+        <v>246703.39</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>66012.85000000001</v>
+        <v>2635</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>-2185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Douglas - Belize</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>226193.43</v>
+        <v>157651.41</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>226193.43</v>
+        <v>157651.41</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>220282.53</v>
+        <v>186725.28</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5910.900000000023</v>
+        <v>-29073.87</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>5910.900000000023</v>
+        <v>-29073.87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sheikh - UAE</t>
+          <t>Sanya Dogaltas - Turkey</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>248888.39</v>
+        <v>47594.04</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4370</v>
+        <v>420</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>244518.39</v>
+        <v>47174.04</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>246703.39</v>
+        <v>47174.04</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2185</v>
+        <v>420</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-2185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Douglas - Belize</t>
+          <t>Pukka Stone - Turkey</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>189366.37</v>
+        <v>2191.7</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>31714.96</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>157651.41</v>
+        <v>2191.7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>186725.28</v>
+        <v>1517.04</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>29073.87</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2641.089999999997</v>
+        <v>674.6599999999999</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-29073.87</v>
+        <v>674.6599999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Richard - Ghana</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>47594.04</v>
+        <v>349999.1</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>47174.04</v>
+        <v>349999.1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>47174.04</v>
+        <v>297993.74</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>420</v>
+        <v>52005.35999999999</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>52005.35999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2191.7</v>
+        <v>54079.47</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2191.7</v>
+        <v>54079.47</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1517.04</v>
+        <v>54564</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>674.6599999999999</v>
+        <v>-484.5299999999988</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>674.6599999999999</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Richard - Ghana</t>
+          <t>Veysi &amp; Assham - Libya</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>349999.1</v>
+        <v>171530.06</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>15773.28</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>349999.1</v>
+        <v>155756.78</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>297993.74</v>
+        <v>155756.78</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>52005.35999999999</v>
+        <v>15773.28</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>52005.35999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>54079.47</v>
+        <v>72305.11</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>54079.47</v>
+        <v>72305.11</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>54564</v>
+        <v>72623.64</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>-484.5299999999988</v>
+        <v>-318.5299999999988</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-484.5299999999988</v>
+        <v>-318.5299999999988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Veysi &amp; Assham - Libya</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>171530.06</v>
+        <v>129554.78</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>15773.28</v>
+        <v>35937.21</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>155756.78</v>
+        <v>93617.57000000001</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>155756.78</v>
+        <v>70000</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>15773.28</v>
+        <v>59554.78</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>23617.57000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Esi Okyere - Ghana</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>61091.01</v>
+        <v>146500.16</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>30908.64</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>61091.01</v>
+        <v>115591.52</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>54200.66</v>
+        <v>144340.16</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0</v>
+        <v>28748.64</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6890.349999999999</v>
+        <v>2160</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>6890.349999999999</v>
+        <v>-28748.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ben Persell Thompson - UK</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>72305.11</v>
+        <v>78106.85000000001</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>25864.39</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>72305.11</v>
+        <v>52242.46</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>72623.64</v>
+        <v>50962.53</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>-318.5299999999988</v>
+        <v>27144.32000000001</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-318.5299999999988</v>
+        <v>1279.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>129554.78</v>
+        <v>172280.42</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>35937.21</v>
+        <v>2400</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>93617.57000000001</v>
+        <v>169880.42</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>70000</v>
+        <v>143308</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>59554.78</v>
+        <v>28972.42000000001</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>23617.57000000001</v>
+        <v>26572.42000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>146500.16</v>
+        <v>19618.88</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>30908.64</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>115591.52</v>
+        <v>19618.88</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>116028.88</v>
+        <v>16805.84</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>437.36</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30471.28</v>
+        <v>2813.040000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-437.3600000000006</v>
+        <v>2813.040000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Brent Losey - USA</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>78106.85000000001</v>
+        <v>7421.790000000001</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>25864.39</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>52242.46</v>
+        <v>7421.790000000001</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>50962.53</v>
+        <v>4934.97</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>27144.32000000001</v>
+        <v>2486.820000000001</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>1279.93</v>
+        <v>2486.820000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Carl Max - Ghana</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>172280.42</v>
+        <v>162180.2</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>169880.42</v>
+        <v>162180.2</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>143308</v>
+        <v>130990</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>28972.42000000001</v>
+        <v>31190.20000000001</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>26572.42000000001</v>
+        <v>31190.20000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Cüneyt Kunter - Turkey</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>19618.88</v>
+        <v>2132.83</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>19618.88</v>
+        <v>2132.83</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>16805.84</v>
+        <v>685.08</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2813.040000000001</v>
+        <v>1447.75</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>2813.040000000001</v>
+        <v>1447.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brent Losey - USA</t>
+          <t>Ante Drazic - HR</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>7421.790000000001</v>
+        <v>12350.24</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7421.790000000001</v>
+        <v>12350.24</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>4934.97</v>
+        <v>12820.24</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2486.820000000001</v>
+        <v>-470</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>2486.820000000001</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Carl Max - Ghana</t>
+          <t>Bilgihan - Turkey</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>158980.2</v>
+        <v>1588.84</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>11333.36</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>147646.84</v>
+        <v>1588.84</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>130990</v>
+        <v>794.42</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>27990.20000000001</v>
+        <v>794.42</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>16656.84</v>
+        <v>794.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Donald Gorski - USA</t>
+          <t>Yamanlar Mermer - Turkey</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>9106.58</v>
+        <v>2107.56</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>9106.58</v>
+        <v>2107.56</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>5356.58</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3750</v>
+        <v>2107.56</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3750</v>
+        <v>2107.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cüneyt Kunter - Turkey</t>
+          <t>Bruno Perre - France</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2132.83</v>
+        <v>89558.69</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0</v>
+        <v>6517.26</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2132.83</v>
+        <v>83041.42999999999</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>685.08</v>
+        <v>83041.42999999999</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1447.75</v>
+        <v>6517.260000000009</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>1447.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Andrea Bigeni - Malta</t>
+          <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44032.91</v>
+        <v>97732.68000000001</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>5641.86</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>38391.05</v>
+        <v>97732.68000000001</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>38391.05</v>
+        <v>95444.52</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5641.860000000001</v>
+        <v>2288.160000000003</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>2288.160000000003</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bilgihan - Turkey</t>
+          <t>Rasma Decor - BH</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1588.84</v>
+        <v>39829.57</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1588.84</v>
+        <v>39829.57</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>794.42</v>
+        <v>15859.9</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>794.42</v>
+        <v>23969.67</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>794.42</v>
+        <v>23969.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Yamanlar Mermer - Turkey</t>
+          <t>Onmer - Turkey</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2107.56</v>
+        <v>3297.56</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2107.56</v>
+        <v>3297.56</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2107.56</v>
+        <v>497.5599999999999</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>2107.56</v>
+        <v>497.5599999999999</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Bruno Perre - France</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>89558.69</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>6517.26</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>83041.42999999999</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>83041.42999999999</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>6517.260000000009</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Kwabena Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>97732.68000000001</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>97732.68000000001</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>95444.52</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>2288.160000000003</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>2288.160000000003</v>
-      </c>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Rasma Decor - BH</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>39829.57</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>39829.57</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>15859.9</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>23969.67</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>23969.67</v>
-      </c>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Mr. Gordon - Singapore</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>66911.28</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>66911.28</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>31000</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>35911.28</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>35911.28</v>
-      </c>
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="2" t="n"/>

--- a/resource_api/finans/konteyner_islem/dosyalar/finans_test_list.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/finans_test_list.xlsx
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4579002.72</v>
+        <v>4581594.72</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>357359.93</v>
+        <v>344802.83</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4221642.79</v>
+        <v>4236791.89</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>3655201.82</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>923800.8999999999</v>
+        <v>926392.8999999999</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>566440.9700000002</v>
+        <v>581590.0699999998</v>
       </c>
     </row>
     <row r="3">
@@ -538,982 +538,868 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Abbas - Angola</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>203005.24</v>
+        <v>143292.9</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>203005.24</v>
+        <v>143292.9</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>191829.33</v>
+        <v>142933.21</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>11175.91</v>
+        <v>359.6900000000023</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>11175.91</v>
+        <v>359.6900000000023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Abbas - Angola</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>143292.9</v>
+        <v>597098.14</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>143292.9</v>
+        <v>597098.14</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>142933.21</v>
+        <v>593460.4399999999</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>359.6900000000023</v>
+        <v>3637.70000000007</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>359.6900000000023</v>
+        <v>3637.70000000007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>604890.7</v>
+        <v>708150.4400000001</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>20213.01</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>594732.9399999999</v>
+        <v>687937.4300000001</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>593460.4399999999</v>
+        <v>667471.77</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>11430.26000000001</v>
+        <v>40678.67000000004</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1272.5</v>
+        <v>20465.66000000003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1957640.03</v>
+        <v>1118936.52</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>14252.4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1943387.63</v>
+        <v>1118936.52</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1943387.63</v>
+        <v>1114917.57</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>14252.40000000014</v>
+        <v>4018.949999999953</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0</v>
+        <v>4018.949999999953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Patrick - Germany</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>687937.4300000001</v>
+        <v>159893.51</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>19701.67</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>687937.4300000001</v>
+        <v>140191.84</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>649694.71</v>
+        <v>148444.96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>8253.120000000001</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>38242.72000000009</v>
+        <v>11448.55000000002</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>38242.72000000009</v>
+        <v>-8253.119999999995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1118266.69</v>
+        <v>72485.12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6698.25</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1111568.44</v>
+        <v>72485.12</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1107549.49</v>
+        <v>76485.12</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>10717.19999999995</v>
+        <v>-4000</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4018.949999999953</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>142602.23</v>
+        <v>129112.96</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>19614.28</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>122987.95</v>
+        <v>129112.96</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>115215.46</v>
+        <v>116717.27</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5792.49</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>27386.77</v>
+        <v>12395.68999999999</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>7772.489999999991</v>
+        <v>12395.68999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>72485.12</v>
+        <v>57182.42</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>54006.42</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>72485.12</v>
+        <v>3176</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>76485.12</v>
+        <v>22182.33</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>19006.33</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-4000</v>
+        <v>35000.09</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-4000</v>
+        <v>-19006.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gebran - Bahrain</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>128335.09</v>
+        <v>226193.43</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>18857.68</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>109477.41</v>
+        <v>226193.43</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>106013.11</v>
+        <v>220282.53</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7239.86</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>22321.98</v>
+        <v>5910.900000000023</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3464.300000000003</v>
+        <v>5910.900000000023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Robert - Bahamas</t>
+          <t>Douglas - Belize</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>54680.02</v>
+        <v>202445.66</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>44794.25</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>54680.02</v>
+        <v>157651.41</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>29017.66</v>
+        <v>196961.28</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>39309.87</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>25662.36</v>
+        <v>5484.380000000005</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>25662.36</v>
+        <v>-39309.87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ingo - Ghana</t>
+          <t>Arron - AU</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>69188.85000000001</v>
+        <v>11655.09</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>66012.85000000001</v>
+        <v>1434.6</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3176</v>
+        <v>10220.49</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3176</v>
+        <v>11655.09</v>
       </c>
       <c r="F14" s="2" t="n">
+        <v>1434.6</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>66012.85000000001</v>
-      </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>-1434.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Richard - Ghana</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>226193.43</v>
+        <v>349999.1</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>226193.43</v>
+        <v>349999.1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>220282.53</v>
+        <v>297993.74</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5910.900000000023</v>
+        <v>52005.35999999999</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>5910.900000000023</v>
+        <v>52005.35999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sheikh - UAE</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>249338.39</v>
+        <v>54079.47</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4820</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>244518.39</v>
+        <v>54079.47</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>246703.39</v>
+        <v>54564</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2635</v>
+        <v>-484.5299999999988</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-2185</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Douglas - Belize</t>
+          <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>157651.41</v>
+        <v>102108.61</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>157651.41</v>
+        <v>99363.61</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>186725.28</v>
+        <v>79623.64</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-29073.87</v>
+        <v>22484.97</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-29073.87</v>
+        <v>19739.97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>47594.04</v>
+        <v>129554.78</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>420</v>
+        <v>35937.21</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>47174.04</v>
+        <v>93617.57000000001</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>47174.04</v>
+        <v>100000</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>6382.43</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>420</v>
+        <v>29554.78</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>-6382.429999999993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2191.7</v>
+        <v>146500.16</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>30908.64</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2191.7</v>
+        <v>115591.52</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1517.04</v>
+        <v>144340.16</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>28748.64</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>674.6599999999999</v>
+        <v>2160</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>674.6599999999999</v>
+        <v>-28748.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Richard - Ghana</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>349999.1</v>
+        <v>172280.42</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>349999.1</v>
+        <v>169880.42</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>297993.74</v>
+        <v>169308</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>52005.35999999999</v>
+        <v>2972.420000000013</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>52005.35999999999</v>
+        <v>572.4200000000128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>54079.47</v>
+        <v>19618.88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>54079.47</v>
+        <v>19618.88</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>54564</v>
+        <v>16805.84</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>-484.5299999999988</v>
+        <v>2813.040000000001</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-484.5299999999988</v>
+        <v>2813.040000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Veysi &amp; Assham - Libya</t>
+          <t>Cüneyt Kunter - Turkey</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>171530.06</v>
+        <v>2132.83</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>15773.28</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>155756.78</v>
+        <v>2132.83</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>155756.78</v>
+        <v>685.08</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>15773.28</v>
+        <v>1447.75</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1447.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ben Persell Thompson - UK</t>
+          <t>Mama Abui - Ghana</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>72305.11</v>
+        <v>57913.67</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>24182</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>72305.11</v>
+        <v>33731.67</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>72623.64</v>
+        <v>36731.67</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>-318.5299999999988</v>
+        <v>21182</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-318.5299999999988</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>129554.78</v>
+        <v>82438.61</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>35937.21</v>
+        <v>36655.7</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>93617.57000000001</v>
+        <v>45782.91</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>70000</v>
+        <v>66892.91</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>21110</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>59554.78</v>
+        <v>15545.7</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>23617.57000000001</v>
+        <v>-21110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Yamanlar Mermer - Turkey</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>146500.16</v>
+        <v>2107.56</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>30908.64</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>115591.52</v>
+        <v>2107.56</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>144340.16</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>28748.64</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2160</v>
+        <v>2107.56</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-28748.64</v>
+        <v>2107.56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Bruno Perre - France</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>78106.85000000001</v>
+        <v>97336.62</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>25864.39</v>
+        <v>14295.19</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>52242.46</v>
+        <v>83041.42999999999</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>50962.53</v>
+        <v>97336.62</v>
       </c>
       <c r="F26" s="2" t="n">
+        <v>14295.19</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>27144.32000000001</v>
-      </c>
       <c r="H26" s="2" t="n">
-        <v>1279.93</v>
+        <v>-14295.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>172280.42</v>
+        <v>97732.68000000001</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>169880.42</v>
+        <v>97732.68000000001</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>143308</v>
+        <v>95444.52</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>28972.42000000001</v>
+        <v>2288.160000000003</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>26572.42000000001</v>
+        <v>2288.160000000003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Mustek Engineering - Ghana</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>19618.88</v>
+        <v>21110.11</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>19618.88</v>
+        <v>21110.11</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>16805.84</v>
+        <v>14554.48</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2813.040000000001</v>
+        <v>6555.630000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>2813.040000000001</v>
+        <v>6555.630000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brent Losey - USA</t>
+          <t>David Vickers - Turkey</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>7421.790000000001</v>
+        <v>2300</v>
       </c>
       <c r="C29" s="2" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>7421.790000000001</v>
-      </c>
       <c r="E29" s="2" t="n">
-        <v>4934.97</v>
+        <v>2304</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2486.820000000001</v>
+        <v>-4</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>2486.820000000001</v>
+        <v>-2304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carl Max - Ghana</t>
+          <t>Stephen Adjokatcher - Ghana</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>162180.2</v>
+        <v>31511.6</v>
       </c>
       <c r="C30" s="2" t="n">
+        <v>31511.6</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>162180.2</v>
-      </c>
       <c r="E30" s="2" t="n">
-        <v>130990</v>
+        <v>12000</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>31190.20000000001</v>
+        <v>19511.6</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>31190.20000000001</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cüneyt Kunter - Turkey</t>
+          <t>İrfan - Turkey</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2132.83</v>
+        <v>1072.38</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2132.83</v>
+        <v>1072.38</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>685.08</v>
+        <v>959.5</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1447.75</v>
+        <v>112.8800000000001</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>1447.75</v>
+        <v>112.8800000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ante Drazic - HR</t>
+          <t>Guilermo - USA</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>12350.24</v>
+        <v>21692</v>
       </c>
       <c r="C32" s="2" t="n">
+        <v>21692</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>12350.24</v>
-      </c>
       <c r="E32" s="2" t="n">
-        <v>12820.24</v>
+        <v>21692</v>
       </c>
       <c r="F32" s="2" t="n">
+        <v>21692</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>-470</v>
-      </c>
       <c r="H32" s="2" t="n">
-        <v>-470</v>
+        <v>-21692</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Bilgihan - Turkey</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1588.84</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1588.84</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>794.42</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>794.42</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>794.42</v>
-      </c>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Yamanlar Mermer - Turkey</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>2107.56</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>2107.56</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>2107.56</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>2107.56</v>
-      </c>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Bruno Perre - France</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>89558.69</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>6517.26</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>83041.42999999999</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>83041.42999999999</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>6517.260000000009</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Kwabena Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>97732.68000000001</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>97732.68000000001</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>95444.52</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>2288.160000000003</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>2288.160000000003</v>
-      </c>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Rasma Decor - BH</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>39829.57</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>39829.57</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>15859.9</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>23969.67</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>23969.67</v>
-      </c>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Onmer - Turkey</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>3297.56</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>3297.56</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>2800</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>497.5599999999999</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>497.5599999999999</v>
-      </c>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="2" t="n"/>
